--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B2CEC8-79A5-48A1-9557-DE854981F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,11 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,21 +405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>37652</v>
       </c>
@@ -423,7 +427,7 @@
         <v>1.3666450000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>37680</v>
       </c>
@@ -431,7 +435,7 @@
         <v>1.4571989999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>37711</v>
       </c>
@@ -439,7 +443,7 @@
         <v>1.529555</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>37741</v>
       </c>
@@ -447,7 +451,7 @@
         <v>1.439813</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>37772</v>
       </c>
@@ -455,7 +459,7 @@
         <v>1.404363</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>37802</v>
       </c>
@@ -463,7 +467,7 @@
         <v>1.401219</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37833</v>
       </c>
@@ -471,7 +475,7 @@
         <v>1.4006529999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37864</v>
       </c>
@@ -479,7 +483,7 @@
         <v>1.398844</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37894</v>
       </c>
@@ -487,7 +491,7 @@
         <v>1.379332</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37925</v>
       </c>
@@ -495,7 +499,7 @@
         <v>1.3599289999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37955</v>
       </c>
@@ -503,7 +507,7 @@
         <v>1.3598140000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37986</v>
       </c>
@@ -511,7 +515,7 @@
         <v>1.360031</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>38017</v>
       </c>
@@ -519,7 +523,7 @@
         <v>1.3634679999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>38046</v>
       </c>
@@ -527,7 +531,7 @@
         <v>1.3680129999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>38077</v>
       </c>
@@ -535,7 +539,7 @@
         <v>1.4104589999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>38107</v>
       </c>
@@ -543,7 +547,7 @@
         <v>1.409621</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>38138</v>
       </c>
@@ -551,7 +555,7 @@
         <v>1.445516</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>38168</v>
       </c>
@@ -559,7 +563,7 @@
         <v>1.4847630000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>38199</v>
       </c>
@@ -567,7 +571,7 @@
         <v>1.5523169999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>38230</v>
       </c>
@@ -575,7 +579,7 @@
         <v>1.6099870000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38260</v>
       </c>
@@ -583,7 +587,7 @@
         <v>1.6304609999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>38291</v>
       </c>
@@ -591,7 +595,7 @@
         <v>1.7536700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>38321</v>
       </c>
@@ -599,7 +603,7 @@
         <v>1.798271</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>38352</v>
       </c>
@@ -607,7 +611,7 @@
         <v>1.7958400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>38383</v>
       </c>
@@ -615,7 +619,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38411</v>
       </c>
@@ -623,7 +627,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38442</v>
       </c>
@@ -631,7 +635,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38472</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>38503</v>
       </c>
@@ -647,7 +651,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>38533</v>
       </c>
@@ -655,7 +659,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>38564</v>
       </c>
@@ -663,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>38595</v>
       </c>
@@ -671,7 +675,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>38625</v>
       </c>
@@ -679,7 +683,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>38656</v>
       </c>
@@ -687,7 +691,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>38686</v>
       </c>
@@ -695,7 +699,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>38717</v>
       </c>
@@ -703,7 +707,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>38748</v>
       </c>
@@ -711,7 +715,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38776</v>
       </c>
@@ -719,7 +723,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38807</v>
       </c>
@@ -727,7 +731,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38837</v>
       </c>
@@ -735,7 +739,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38868</v>
       </c>
@@ -743,7 +747,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38898</v>
       </c>
@@ -751,7 +755,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>38929</v>
       </c>
@@ -759,7 +763,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>38960</v>
       </c>
@@ -767,7 +771,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>38990</v>
       </c>
@@ -775,7 +779,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39021</v>
       </c>
@@ -783,7 +787,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>39051</v>
       </c>
@@ -791,7 +795,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>39082</v>
       </c>
@@ -799,7 +803,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>39113</v>
       </c>
@@ -807,7 +811,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39141</v>
       </c>
@@ -815,7 +819,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>39172</v>
       </c>
@@ -823,7 +827,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>39202</v>
       </c>
@@ -831,7 +835,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>39233</v>
       </c>
@@ -839,7 +843,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>39263</v>
       </c>
@@ -847,7 +851,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>39294</v>
       </c>
@@ -855,7 +859,7 @@
         <v>2.2715999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>39325</v>
       </c>
@@ -863,7 +867,7 @@
         <v>2.2799</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>39355</v>
       </c>
@@ -871,7 +875,7 @@
         <v>2.3075999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>39386</v>
       </c>
@@ -879,7 +883,7 @@
         <v>2.3102</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>39416</v>
       </c>
@@ -887,7 +891,7 @@
         <v>2.5535000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>39447</v>
       </c>
@@ -895,7 +899,7 @@
         <v>2.5211000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>39478</v>
       </c>
@@ -903,7 +907,7 @@
         <v>2.5183</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>39507</v>
       </c>
@@ -911,7 +915,7 @@
         <v>2.5985999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>39538</v>
       </c>
@@ -919,7 +923,7 @@
         <v>2.7814999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>39568</v>
       </c>
@@ -927,7 +931,7 @@
         <v>2.9352999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>39599</v>
       </c>
@@ -935,7 +939,7 @@
         <v>3.0992000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>39629</v>
       </c>
@@ -943,7 +947,7 @@
         <v>3.1682999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>39660</v>
       </c>
@@ -951,7 +955,7 @@
         <v>3.1871</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>39691</v>
       </c>
@@ -959,7 +963,7 @@
         <v>2.8776999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>39721</v>
       </c>
@@ -967,7 +971,7 @@
         <v>2.8277000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>39752</v>
       </c>
@@ -975,7 +979,7 @@
         <v>2.7637</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>39782</v>
       </c>
@@ -983,7 +987,7 @@
         <v>2.7048999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39813</v>
       </c>
@@ -991,7 +995,7 @@
         <v>2.4373</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39844</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>2.3618999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39872</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>2.2906</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39903</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39933</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>2.3662000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39964</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>2.3693</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39994</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>40025</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>2.3822000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>40056</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>2.5396000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>40086</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>2.5482999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>40117</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>2.6034999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>40147</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>40178</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>2.6772</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>40209</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>3.0192000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>40237</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>3.0049999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>40268</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>3.0838000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>40298</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>3.1057999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>40329</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>3.0792000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>40359</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>3.0737999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>40390</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>3.0251999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>40421</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>3.0712000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>40451</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>3.0623</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>40482</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>3.0737999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>40512</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>3.1097999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>40543</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>3.2452999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>40574</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>3.3435000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>40602</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>3.4278</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>40633</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>3.6514000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>40663</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>3.6069</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>40694</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>3.5470000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>40724</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>3.6198999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>40755</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>3.7008999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>40786</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>3.7625000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>40816</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>3.8008999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>40847</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>3.8500999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>40877</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>3.8332000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>40908</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>3.8525</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>40939</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>3.8927</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>40968</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>3.8772000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>40999</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>3.9937</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>41029</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>3.9996999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>41060</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>3.851</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>41090</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>3.7385999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>41121</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>3.7976999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>41152</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>3.9352</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>41182</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>4.0837000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>41213</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>4.3540999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>41243</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>4.2096</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>41274</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>4.2022000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>41305</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>4.2301000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>41333</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>4.2972000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>41364</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>4.2769000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>41394</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>4.1581999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>41425</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>4.1535000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>41455</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>4.2526999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>41486</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>4.3585000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>41517</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>4.3922999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>41547</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>4.5387000000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>41578</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>4.4592000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>41608</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>4.4600999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>41639</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>4.5316000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>41670</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>4.6622000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>41698</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>4.7408000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>41729</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>4.6327999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>41759</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>4.3449</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41790</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>4.3205</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>41820</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>4.4393000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>41851</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>4.4421999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>41882</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>4.4340000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>41912</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>4.3891999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>41943</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>4.2956000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>41973</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>4.1734999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42004</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>3.8835999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42035</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>3.6575000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42063</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>3.8271000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42094</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>3.8024</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42124</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>3.8717999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42155</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>4.0658000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42185</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>4.0382999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42216</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>3.9316</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42247</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>3.8399000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42277</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>3.9458000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42308</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>3.8862999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42338</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42369</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>3.5855999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42400</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>3.4331999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42429</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>3.4428000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42460</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>3.5710000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42490</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>3.5916999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42521</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>3.7847</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42551</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>3.8734999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42582</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>3.8161999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42613</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>3.7658</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42643</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42674</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>4.2343000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42704</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>4.2160000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42735</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>4.4715999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42766</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>4.6859999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42794</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>4.6951000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42825</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>4.5799000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42855</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>4.6193999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42886</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>4.5129000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42916</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>4.4123000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42947</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>4.4764999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42978</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>4.5956999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43008</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>4.6741000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43039</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>4.8201999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43069</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>5.0646000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43100</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>5.1024000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43131</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>5.1802999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43159</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>5.1349</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43190</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>5.2229999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43220</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>5.5347</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43251</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>5.6866000000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43281</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>5.7422000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43312</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>5.7427999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43343</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>6.0298999999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43373</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>6.3541999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43404</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>6.4111000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43434</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>6.3893000000000004</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43465</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43496</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>5.9954999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43524</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>6.1642000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43555</v>
       </c>
@@ -1975,7 +1979,7 @@
         <v>6.4145000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43585</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>6.4749999999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43616</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>6.5396999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43646</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>6.4404000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43677</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>6.5023</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43708</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>6.298</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43738</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>6.5057</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43769</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>6.5739999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43799</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>6.6201999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43830</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>6.5974000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43861</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>6.6277999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43890</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>6.4562999999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43921</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>5.8166000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43951</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>5.2778999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43982</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>5.3998999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44012</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>5.7500999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>44043</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>6.0076000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44074</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>6.1638000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44104</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>6.0171999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44135</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>6.1753999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44165</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>6.3964999999999996</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44196</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>6.6961000000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44227</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>6.7183000000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>44255</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>6.7321999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44286</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>6.6519000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>44316</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>6.5347999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>44347</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>6.8316999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>44377</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>7.3236999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>44408</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>7.3287000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>44439</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>7.3712999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>44469</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>7.3836000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>44500</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>7.8731999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>44530</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>8.6708999999999996</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>44561</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>10.6783</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>44592</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>13.8452</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>44620</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>15.510400000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>44651</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>20.578399999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>44681</v>
       </c>
@@ -2271,89 +2275,94 @@
         <v>21.499099999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>22.36</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>28.14</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>25.44</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>24.51</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>24.3</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>26.27</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>25.2</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>22.03</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>22.61</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>20.98</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>20.77</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>20.46</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>22.1</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>29.48</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>37.369999999999997</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>39.18</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>38.9</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,6 +2365,11 @@
         <v>38.9</v>
       </c>
     </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238"/>
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252">
-        <v>38.979999999999997</v>
+        <v>37.25</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252">
-        <v>37.25</v>
+        <v>37.68</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,6 +2370,16 @@
         <v>37.68</v>
       </c>
     </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>38.520000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254">
-        <v>38.520000000000003</v>
+        <v>38.97</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2377,12 @@
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254">
-        <v>38.97</v>
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>41.69</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:B255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255">
-        <v>41.69</v>
+        <v>42.53</v>
       </c>
     </row>
   </sheetData>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,6 +2385,11 @@
         <v>42.53</v>
       </c>
     </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>41.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD501E63-DD56-4FAC-98C9-69D7DBF5C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="2190" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -405,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+      <selection activeCell="G249" sqref="G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,6 +2380,11 @@
         <v>41.42</v>
       </c>
     </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>41.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD501E63-DD56-4FAC-98C9-69D7DBF5C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD418A0-CCE4-4B45-82BA-FA6F3DD7B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="G249" sqref="G249"/>
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,6 +2385,11 @@
         <v>41.85</v>
       </c>
     </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>44.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD418A0-CCE4-4B45-82BA-FA6F3DD7B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21F181-7A20-4482-9E3B-70702A776859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,6 +2390,11 @@
         <v>44.35</v>
       </c>
     </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>43.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/motorin.xlsx
+++ b/motorin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\InflationForecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2E9E6-6BD7-450D-9AC7-626BA3CF1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1768D6-51AB-4898-9057-50DB6C92493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -86,6 +86,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="L226" sqref="L226"/>
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,6 +2309,54 @@
         <v>42.96</v>
       </c>
     </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B240">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B241">
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B242">
+        <v>46.29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B243">
+        <v>46.77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B244">
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B245">
+        <v>45.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
